--- a/assets spreadsheet.xlsx
+++ b/assets spreadsheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8834126-EACA-4517-ACA7-37F7090B21FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C039EC6-E492-4A7E-96A1-70BD81A516E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>asset name</t>
   </si>
@@ -34,9 +34,6 @@
     <t>time taken</t>
   </si>
   <si>
-    <t>gear</t>
-  </si>
-  <si>
     <t>pipe</t>
   </si>
   <si>
@@ -74,6 +71,15 @@
   </si>
   <si>
     <t>textured?</t>
+  </si>
+  <si>
+    <t>mid gear</t>
+  </si>
+  <si>
+    <t>large gear</t>
+  </si>
+  <si>
+    <t>small gear</t>
   </si>
 </sst>
 </file>
@@ -115,9 +121,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,10 +425,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -435,83 +442,121 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
